--- a/Data/Source_Data/Issues_Data/Issues_downtime_rawmaterial_data.xlsx
+++ b/Data/Source_Data/Issues_Data/Issues_downtime_rawmaterial_data.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\india-intern10\Desktop\Dhruv Data\Folder for Ashwin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\india-intern10\Desktop\Terasaka_Demo\1_Code_modular\Data\Source_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C881F6-7629-4D23-BE23-8513C3FCE165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2BE3A2-B908-4FCD-B3F1-B8E07AE00289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -67,9 +78,6 @@
   </si>
   <si>
     <t>No Issue</t>
-  </si>
-  <si>
-    <t>None</t>
   </si>
   <si>
     <t>Night</t>
@@ -118,7 +126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,26 +438,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J181"/>
+  <dimension ref="A1:J187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="D193" sqref="D193"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -481,7 +483,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>45748</v>
       </c>
@@ -509,11 +511,8 @@
       <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>45748</v>
       </c>
@@ -521,7 +520,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>6881</v>
@@ -541,16 +540,13 @@
       <c r="I3" t="s">
         <v>13</v>
       </c>
-      <c r="J3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>45748</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -571,21 +567,21 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
         <v>17</v>
       </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>45748</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>5842</v>
@@ -605,16 +601,13 @@
       <c r="I5" t="s">
         <v>13</v>
       </c>
-      <c r="J5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>45748</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -635,21 +628,21 @@
         <v>0.78</v>
       </c>
       <c r="I6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" t="s">
         <v>20</v>
       </c>
-      <c r="J6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>45748</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <v>4789</v>
@@ -669,11 +662,8 @@
       <c r="I7" t="s">
         <v>13</v>
       </c>
-      <c r="J7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>45749</v>
       </c>
@@ -701,11 +691,8 @@
       <c r="I8" t="s">
         <v>13</v>
       </c>
-      <c r="J8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>45749</v>
       </c>
@@ -713,7 +700,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9">
         <v>3927</v>
@@ -731,18 +718,18 @@
         <v>2.44</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>45749</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -765,19 +752,16 @@
       <c r="I10" t="s">
         <v>13</v>
       </c>
-      <c r="J10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>45749</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11">
         <v>2865</v>
@@ -797,16 +781,13 @@
       <c r="I11" t="s">
         <v>13</v>
       </c>
-      <c r="J11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>45749</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
@@ -829,19 +810,16 @@
       <c r="I12" t="s">
         <v>13</v>
       </c>
-      <c r="J12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>45749</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13">
         <v>1812.5</v>
@@ -861,11 +839,8 @@
       <c r="I13" t="s">
         <v>13</v>
       </c>
-      <c r="J13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>45750</v>
       </c>
@@ -893,11 +868,8 @@
       <c r="I14" t="s">
         <v>13</v>
       </c>
-      <c r="J14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>45750</v>
       </c>
@@ -905,7 +877,7 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15">
         <v>731</v>
@@ -923,18 +895,18 @@
         <v>0.93</v>
       </c>
       <c r="I15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" t="s">
         <v>20</v>
       </c>
-      <c r="J15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>45750</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -943,7 +915,7 @@
         <v>122.5</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F16">
         <v>0.38</v>
@@ -957,25 +929,22 @@
       <c r="I16" t="s">
         <v>13</v>
       </c>
-      <c r="J16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>45750</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F17">
         <v>1.95</v>
@@ -987,18 +956,18 @@
         <v>2.65</v>
       </c>
       <c r="I17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>45750</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -1007,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F18">
         <v>0.49</v>
@@ -1021,25 +990,22 @@
       <c r="I18" t="s">
         <v>13</v>
       </c>
-      <c r="J18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>45750</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F19">
         <v>1.39</v>
@@ -1051,13 +1017,13 @@
         <v>1.39</v>
       </c>
       <c r="I19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" t="s">
         <v>20</v>
       </c>
-      <c r="J19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>45751</v>
       </c>
@@ -1085,11 +1051,8 @@
       <c r="I20" t="s">
         <v>13</v>
       </c>
-      <c r="J20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>45751</v>
       </c>
@@ -1097,7 +1060,7 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21">
         <v>3972</v>
@@ -1115,18 +1078,18 @@
         <v>0.78</v>
       </c>
       <c r="I21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>45751</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
@@ -1149,19 +1112,16 @@
       <c r="I22" t="s">
         <v>13</v>
       </c>
-      <c r="J22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>45751</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23">
         <v>2975.5</v>
@@ -1181,16 +1141,13 @@
       <c r="I23" t="s">
         <v>13</v>
       </c>
-      <c r="J23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>45751</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
@@ -1211,21 +1168,21 @@
         <v>0.92</v>
       </c>
       <c r="I24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>45751</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D25">
         <v>2075</v>
@@ -1245,11 +1202,8 @@
       <c r="I25" t="s">
         <v>13</v>
       </c>
-      <c r="J25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1">
         <v>45752</v>
       </c>
@@ -1275,13 +1229,13 @@
         <v>1.53</v>
       </c>
       <c r="I26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1">
         <v>45752</v>
       </c>
@@ -1289,7 +1243,7 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D27">
         <v>1133.5</v>
@@ -1309,16 +1263,13 @@
       <c r="I27" t="s">
         <v>13</v>
       </c>
-      <c r="J27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1">
         <v>45752</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
@@ -1341,25 +1292,22 @@
       <c r="I28" t="s">
         <v>13</v>
       </c>
-      <c r="J28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1">
         <v>45752</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F29">
         <v>0.02</v>
@@ -1373,16 +1321,13 @@
       <c r="I29" t="s">
         <v>13</v>
       </c>
-      <c r="J29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1">
         <v>45752</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
@@ -1391,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F30">
         <v>0.4</v>
@@ -1405,25 +1350,22 @@
       <c r="I30" t="s">
         <v>13</v>
       </c>
-      <c r="J30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1">
         <v>45752</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F31">
         <v>0.32</v>
@@ -1437,11 +1379,8 @@
       <c r="I31" t="s">
         <v>13</v>
       </c>
-      <c r="J31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1">
         <v>45753</v>
       </c>
@@ -1469,11 +1408,8 @@
       <c r="I32" t="s">
         <v>13</v>
       </c>
-      <c r="J32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1">
         <v>45753</v>
       </c>
@@ -1481,7 +1417,7 @@
         <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D33">
         <v>3917.5</v>
@@ -1499,18 +1435,18 @@
         <v>0.91</v>
       </c>
       <c r="I33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J33" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1">
         <v>45753</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
@@ -1533,19 +1469,16 @@
       <c r="I34" t="s">
         <v>13</v>
       </c>
-      <c r="J34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1">
         <v>45753</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D35">
         <v>2720.5</v>
@@ -1565,16 +1498,13 @@
       <c r="I35" t="s">
         <v>13</v>
       </c>
-      <c r="J35" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1">
         <v>45753</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
@@ -1597,19 +1527,16 @@
       <c r="I36" t="s">
         <v>13</v>
       </c>
-      <c r="J36" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1">
         <v>45753</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D37">
         <v>1796.5</v>
@@ -1627,13 +1554,13 @@
         <v>0.72</v>
       </c>
       <c r="I37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J37" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1">
         <v>45754</v>
       </c>
@@ -1661,11 +1588,8 @@
       <c r="I38" t="s">
         <v>13</v>
       </c>
-      <c r="J38" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1">
         <v>45754</v>
       </c>
@@ -1673,7 +1597,7 @@
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D39">
         <v>703.5</v>
@@ -1693,16 +1617,13 @@
       <c r="I39" t="s">
         <v>13</v>
       </c>
-      <c r="J39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1">
         <v>45754</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C40" t="s">
         <v>11</v>
@@ -1711,7 +1632,7 @@
         <v>234</v>
       </c>
       <c r="E40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F40">
         <v>0.4</v>
@@ -1725,25 +1646,22 @@
       <c r="I40" t="s">
         <v>13</v>
       </c>
-      <c r="J40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1">
         <v>45754</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D41">
         <v>74.5</v>
       </c>
       <c r="E41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F41">
         <v>2.96</v>
@@ -1755,18 +1673,18 @@
         <v>3.87</v>
       </c>
       <c r="I41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J41" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1">
         <v>45754</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C42" t="s">
         <v>11</v>
@@ -1775,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F42">
         <v>0.35</v>
@@ -1789,25 +1707,22 @@
       <c r="I42" t="s">
         <v>13</v>
       </c>
-      <c r="J42" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1">
         <v>45754</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F43">
         <v>0.26</v>
@@ -1821,11 +1736,8 @@
       <c r="I43" t="s">
         <v>13</v>
       </c>
-      <c r="J43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1">
         <v>45755</v>
       </c>
@@ -1851,13 +1763,13 @@
         <v>1.46</v>
       </c>
       <c r="I44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J44" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1">
         <v>45755</v>
       </c>
@@ -1865,7 +1777,7 @@
         <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D45">
         <v>4065</v>
@@ -1883,18 +1795,18 @@
         <v>1.71</v>
       </c>
       <c r="I45" t="s">
+        <v>19</v>
+      </c>
+      <c r="J45" t="s">
         <v>20</v>
       </c>
-      <c r="J45" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1">
         <v>45755</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C46" t="s">
         <v>11</v>
@@ -1917,19 +1829,16 @@
       <c r="I46" t="s">
         <v>13</v>
       </c>
-      <c r="J46" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1">
         <v>45755</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D47">
         <v>2946.5</v>
@@ -1949,16 +1858,13 @@
       <c r="I47" t="s">
         <v>13</v>
       </c>
-      <c r="J47" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1">
         <v>45755</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C48" t="s">
         <v>11</v>
@@ -1979,21 +1885,21 @@
         <v>1.46</v>
       </c>
       <c r="I48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J48" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1">
         <v>45755</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D49">
         <v>2249</v>
@@ -2011,13 +1917,13 @@
         <v>2.56</v>
       </c>
       <c r="I49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J49" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1">
         <v>45756</v>
       </c>
@@ -2045,11 +1951,8 @@
       <c r="I50" t="s">
         <v>13</v>
       </c>
-      <c r="J50" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1">
         <v>45756</v>
       </c>
@@ -2057,7 +1960,7 @@
         <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D51">
         <v>1141</v>
@@ -2077,16 +1980,13 @@
       <c r="I51" t="s">
         <v>13</v>
       </c>
-      <c r="J51" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1">
         <v>45756</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C52" t="s">
         <v>11</v>
@@ -2109,25 +2009,22 @@
       <c r="I52" t="s">
         <v>13</v>
       </c>
-      <c r="J52" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1">
         <v>45756</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D53">
         <v>55.5</v>
       </c>
       <c r="E53" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F53">
         <v>0.2</v>
@@ -2141,16 +2038,13 @@
       <c r="I53" t="s">
         <v>13</v>
       </c>
-      <c r="J53" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1">
         <v>45756</v>
       </c>
       <c r="B54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C54" t="s">
         <v>11</v>
@@ -2159,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F54">
         <v>0.03</v>
@@ -2173,25 +2067,22 @@
       <c r="I54" t="s">
         <v>13</v>
       </c>
-      <c r="J54" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1">
         <v>45756</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F55">
         <v>0.2</v>
@@ -2205,11 +2096,8 @@
       <c r="I55" t="s">
         <v>13</v>
       </c>
-      <c r="J55" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1">
         <v>45757</v>
       </c>
@@ -2237,11 +2125,8 @@
       <c r="I56" t="s">
         <v>13</v>
       </c>
-      <c r="J56" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1">
         <v>45757</v>
       </c>
@@ -2249,7 +2134,7 @@
         <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D57">
         <v>3935</v>
@@ -2267,18 +2152,18 @@
         <v>1.01</v>
       </c>
       <c r="I57" t="s">
+        <v>19</v>
+      </c>
+      <c r="J57" t="s">
         <v>20</v>
       </c>
-      <c r="J57" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1">
         <v>45757</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C58" t="s">
         <v>11</v>
@@ -2301,19 +2186,16 @@
       <c r="I58" t="s">
         <v>13</v>
       </c>
-      <c r="J58" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1">
         <v>45757</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D59">
         <v>2714.5</v>
@@ -2333,16 +2215,13 @@
       <c r="I59" t="s">
         <v>13</v>
       </c>
-      <c r="J59" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1">
         <v>45757</v>
       </c>
       <c r="B60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C60" t="s">
         <v>11</v>
@@ -2365,19 +2244,16 @@
       <c r="I60" t="s">
         <v>13</v>
       </c>
-      <c r="J60" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1">
         <v>45757</v>
       </c>
       <c r="B61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D61">
         <v>2033</v>
@@ -2395,13 +2271,13 @@
         <v>1.58</v>
       </c>
       <c r="I61" t="s">
+        <v>19</v>
+      </c>
+      <c r="J61" t="s">
         <v>20</v>
       </c>
-      <c r="J61" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1">
         <v>45758</v>
       </c>
@@ -2429,11 +2305,8 @@
       <c r="I62" t="s">
         <v>13</v>
       </c>
-      <c r="J62" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1">
         <v>45758</v>
       </c>
@@ -2441,7 +2314,7 @@
         <v>10</v>
       </c>
       <c r="C63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D63">
         <v>1163</v>
@@ -2461,16 +2334,13 @@
       <c r="I63" t="s">
         <v>13</v>
       </c>
-      <c r="J63" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1">
         <v>45758</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C64" t="s">
         <v>11</v>
@@ -2491,27 +2361,27 @@
         <v>1.01</v>
       </c>
       <c r="I64" t="s">
+        <v>19</v>
+      </c>
+      <c r="J64" t="s">
         <v>20</v>
       </c>
-      <c r="J64" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1">
         <v>45758</v>
       </c>
       <c r="B65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D65">
         <v>144</v>
       </c>
       <c r="E65" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F65">
         <v>0.15</v>
@@ -2525,16 +2395,13 @@
       <c r="I65" t="s">
         <v>13</v>
       </c>
-      <c r="J65" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1">
         <v>45758</v>
       </c>
       <c r="B66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C66" t="s">
         <v>11</v>
@@ -2543,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F66">
         <v>0.01</v>
@@ -2557,25 +2424,22 @@
       <c r="I66" t="s">
         <v>13</v>
       </c>
-      <c r="J66" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1">
         <v>45758</v>
       </c>
       <c r="B67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F67">
         <v>0.03</v>
@@ -2589,11 +2453,8 @@
       <c r="I67" t="s">
         <v>13</v>
       </c>
-      <c r="J67" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1">
         <v>45759</v>
       </c>
@@ -2621,11 +2482,8 @@
       <c r="I68" t="s">
         <v>13</v>
       </c>
-      <c r="J68" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1">
         <v>45759</v>
       </c>
@@ -2633,7 +2491,7 @@
         <v>10</v>
       </c>
       <c r="C69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D69">
         <v>4025</v>
@@ -2651,18 +2509,18 @@
         <v>1.51</v>
       </c>
       <c r="I69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J69" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1">
         <v>45759</v>
       </c>
       <c r="B70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C70" t="s">
         <v>11</v>
@@ -2685,19 +2543,16 @@
       <c r="I70" t="s">
         <v>13</v>
       </c>
-      <c r="J70" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1">
         <v>45759</v>
       </c>
       <c r="B71" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D71">
         <v>2890.5</v>
@@ -2717,16 +2572,13 @@
       <c r="I71" t="s">
         <v>13</v>
       </c>
-      <c r="J71" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1">
         <v>45759</v>
       </c>
       <c r="B72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C72" t="s">
         <v>11</v>
@@ -2747,21 +2599,21 @@
         <v>1.7</v>
       </c>
       <c r="I72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J72" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1">
         <v>45759</v>
       </c>
       <c r="B73" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D73">
         <v>1937.5</v>
@@ -2781,11 +2633,8 @@
       <c r="I73" t="s">
         <v>13</v>
       </c>
-      <c r="J73" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1">
         <v>45760</v>
       </c>
@@ -2813,11 +2662,8 @@
       <c r="I74" t="s">
         <v>13</v>
       </c>
-      <c r="J74" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1">
         <v>45760</v>
       </c>
@@ -2825,7 +2671,7 @@
         <v>10</v>
       </c>
       <c r="C75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D75">
         <v>1190.5</v>
@@ -2843,18 +2689,18 @@
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J75" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1">
         <v>45760</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C76" t="s">
         <v>11</v>
@@ -2877,25 +2723,22 @@
       <c r="I76" t="s">
         <v>13</v>
       </c>
-      <c r="J76" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1">
         <v>45760</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C77" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D77">
         <v>209</v>
       </c>
       <c r="E77" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F77">
         <v>0.28000000000000003</v>
@@ -2909,16 +2752,13 @@
       <c r="I77" t="s">
         <v>13</v>
       </c>
-      <c r="J77" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1">
         <v>45760</v>
       </c>
       <c r="B78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C78" t="s">
         <v>11</v>
@@ -2927,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F78">
         <v>0.15</v>
@@ -2941,25 +2781,22 @@
       <c r="I78" t="s">
         <v>13</v>
       </c>
-      <c r="J78" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1">
         <v>45760</v>
       </c>
       <c r="B79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F79">
         <v>0.12</v>
@@ -2973,11 +2810,8 @@
       <c r="I79" t="s">
         <v>13</v>
       </c>
-      <c r="J79" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1">
         <v>45761</v>
       </c>
@@ -3005,11 +2839,8 @@
       <c r="I80" t="s">
         <v>13</v>
       </c>
-      <c r="J80" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1">
         <v>45761</v>
       </c>
@@ -3017,7 +2848,7 @@
         <v>10</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D81">
         <v>3843.5</v>
@@ -3037,16 +2868,13 @@
       <c r="I81" t="s">
         <v>13</v>
       </c>
-      <c r="J81" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1">
         <v>45761</v>
       </c>
       <c r="B82" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C82" t="s">
         <v>11</v>
@@ -3069,19 +2897,16 @@
       <c r="I82" t="s">
         <v>13</v>
       </c>
-      <c r="J82" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1">
         <v>45761</v>
       </c>
       <c r="B83" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D83">
         <v>2828.5</v>
@@ -3099,18 +2924,18 @@
         <v>0.99</v>
       </c>
       <c r="I83" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J83" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1">
         <v>45761</v>
       </c>
       <c r="B84" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C84" t="s">
         <v>11</v>
@@ -3133,19 +2958,16 @@
       <c r="I84" t="s">
         <v>13</v>
       </c>
-      <c r="J84" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1">
         <v>45761</v>
       </c>
       <c r="B85" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D85">
         <v>1865</v>
@@ -3165,11 +2987,8 @@
       <c r="I85" t="s">
         <v>13</v>
       </c>
-      <c r="J85" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1">
         <v>45762</v>
       </c>
@@ -3197,11 +3016,8 @@
       <c r="I86" t="s">
         <v>13</v>
       </c>
-      <c r="J86" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1">
         <v>45762</v>
       </c>
@@ -3209,7 +3025,7 @@
         <v>10</v>
       </c>
       <c r="C87" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D87">
         <v>951.5</v>
@@ -3229,16 +3045,13 @@
       <c r="I87" t="s">
         <v>13</v>
       </c>
-      <c r="J87" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1">
         <v>45762</v>
       </c>
       <c r="B88" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C88" t="s">
         <v>11</v>
@@ -3261,25 +3074,22 @@
       <c r="I88" t="s">
         <v>13</v>
       </c>
-      <c r="J88" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1">
         <v>45762</v>
       </c>
       <c r="B89" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F89">
         <v>0.25</v>
@@ -3293,16 +3103,13 @@
       <c r="I89" t="s">
         <v>13</v>
       </c>
-      <c r="J89" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1">
         <v>45762</v>
       </c>
       <c r="B90" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C90" t="s">
         <v>11</v>
@@ -3311,7 +3118,7 @@
         <v>0</v>
       </c>
       <c r="E90" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -3325,25 +3132,22 @@
       <c r="I90" t="s">
         <v>13</v>
       </c>
-      <c r="J90" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1">
         <v>45762</v>
       </c>
       <c r="B91" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F91">
         <v>2.85</v>
@@ -3355,13 +3159,13 @@
         <v>2.85</v>
       </c>
       <c r="I91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J91" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1">
         <v>45763</v>
       </c>
@@ -3389,11 +3193,8 @@
       <c r="I92" t="s">
         <v>13</v>
       </c>
-      <c r="J92" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1">
         <v>45763</v>
       </c>
@@ -3401,7 +3202,7 @@
         <v>10</v>
       </c>
       <c r="C93" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D93">
         <v>4082.5</v>
@@ -3419,18 +3220,18 @@
         <v>2.64</v>
       </c>
       <c r="I93" t="s">
+        <v>16</v>
+      </c>
+      <c r="J93" t="s">
         <v>17</v>
       </c>
-      <c r="J93" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1">
         <v>45763</v>
       </c>
       <c r="B94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C94" t="s">
         <v>11</v>
@@ -3453,19 +3254,16 @@
       <c r="I94" t="s">
         <v>13</v>
       </c>
-      <c r="J94" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1">
         <v>45763</v>
       </c>
       <c r="B95" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D95">
         <v>2969</v>
@@ -3483,18 +3281,18 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="I95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J95" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1">
         <v>45763</v>
       </c>
       <c r="B96" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C96" t="s">
         <v>11</v>
@@ -3517,19 +3315,16 @@
       <c r="I96" t="s">
         <v>13</v>
       </c>
-      <c r="J96" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1">
         <v>45763</v>
       </c>
       <c r="B97" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D97">
         <v>2033.5</v>
@@ -3549,11 +3344,8 @@
       <c r="I97" t="s">
         <v>13</v>
       </c>
-      <c r="J97" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1">
         <v>45764</v>
       </c>
@@ -3579,13 +3371,13 @@
         <v>1.84</v>
       </c>
       <c r="I98" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J98" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1">
         <v>45764</v>
       </c>
@@ -3593,7 +3385,7 @@
         <v>10</v>
       </c>
       <c r="C99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D99">
         <v>1228.5</v>
@@ -3613,16 +3405,13 @@
       <c r="I99" t="s">
         <v>13</v>
       </c>
-      <c r="J99" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1">
         <v>45764</v>
       </c>
       <c r="B100" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C100" t="s">
         <v>11</v>
@@ -3645,25 +3434,22 @@
       <c r="I100" t="s">
         <v>13</v>
       </c>
-      <c r="J100" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1">
         <v>45764</v>
       </c>
       <c r="B101" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C101" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D101">
         <v>101.5</v>
       </c>
       <c r="E101" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F101">
         <v>0.37</v>
@@ -3677,16 +3463,13 @@
       <c r="I101" t="s">
         <v>13</v>
       </c>
-      <c r="J101" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1">
         <v>45764</v>
       </c>
       <c r="B102" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C102" t="s">
         <v>11</v>
@@ -3695,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F102">
         <v>0.4</v>
@@ -3709,25 +3492,22 @@
       <c r="I102" t="s">
         <v>13</v>
       </c>
-      <c r="J102" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1">
         <v>45764</v>
       </c>
       <c r="B103" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C103" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D103">
         <v>0</v>
       </c>
       <c r="E103" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F103">
         <v>1.45</v>
@@ -3739,13 +3519,13 @@
         <v>1.45</v>
       </c>
       <c r="I103" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J103" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1">
         <v>45765</v>
       </c>
@@ -3773,11 +3553,8 @@
       <c r="I104" t="s">
         <v>13</v>
       </c>
-      <c r="J104" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1">
         <v>45765</v>
       </c>
@@ -3785,7 +3562,7 @@
         <v>10</v>
       </c>
       <c r="C105" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D105">
         <v>4147.5</v>
@@ -3803,18 +3580,18 @@
         <v>2.38</v>
       </c>
       <c r="I105" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J105" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1">
         <v>45765</v>
       </c>
       <c r="B106" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C106" t="s">
         <v>11</v>
@@ -3837,19 +3614,16 @@
       <c r="I106" t="s">
         <v>13</v>
       </c>
-      <c r="J106" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1">
         <v>45765</v>
       </c>
       <c r="B107" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C107" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D107">
         <v>3110.5</v>
@@ -3869,16 +3643,13 @@
       <c r="I107" t="s">
         <v>13</v>
       </c>
-      <c r="J107" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1">
         <v>45765</v>
       </c>
       <c r="B108" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C108" t="s">
         <v>11</v>
@@ -3899,21 +3670,21 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="I108" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J108" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1">
         <v>45765</v>
       </c>
       <c r="B109" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C109" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D109">
         <v>2265.5</v>
@@ -3933,11 +3704,8 @@
       <c r="I109" t="s">
         <v>13</v>
       </c>
-      <c r="J109" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1">
         <v>45766</v>
       </c>
@@ -3965,11 +3733,8 @@
       <c r="I110" t="s">
         <v>13</v>
       </c>
-      <c r="J110" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1">
         <v>45766</v>
       </c>
@@ -3977,7 +3742,7 @@
         <v>10</v>
       </c>
       <c r="C111" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D111">
         <v>1280</v>
@@ -3997,16 +3762,13 @@
       <c r="I111" t="s">
         <v>13</v>
       </c>
-      <c r="J111" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1">
         <v>45766</v>
       </c>
       <c r="B112" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C112" t="s">
         <v>11</v>
@@ -4027,21 +3789,21 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="I112" t="s">
+        <v>16</v>
+      </c>
+      <c r="J112" t="s">
         <v>17</v>
       </c>
-      <c r="J112" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1">
         <v>45766</v>
       </c>
       <c r="B113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C113" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D113">
         <v>439.5</v>
@@ -4059,18 +3821,18 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="I113" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J113" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1">
         <v>45766</v>
       </c>
       <c r="B114" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C114" t="s">
         <v>11</v>
@@ -4079,7 +3841,7 @@
         <v>149</v>
       </c>
       <c r="E114" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F114">
         <v>2.71</v>
@@ -4091,27 +3853,27 @@
         <v>3.13</v>
       </c>
       <c r="I114" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J114" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1">
         <v>45766</v>
       </c>
       <c r="B115" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C115" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D115">
         <v>0</v>
       </c>
       <c r="E115" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F115">
         <v>1.34</v>
@@ -4123,13 +3885,13 @@
         <v>2.12</v>
       </c>
       <c r="I115" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J115" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1">
         <v>45767</v>
       </c>
@@ -4155,13 +3917,13 @@
         <v>0.95</v>
       </c>
       <c r="I116" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J116" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1">
         <v>45767</v>
       </c>
@@ -4169,7 +3931,7 @@
         <v>10</v>
       </c>
       <c r="C117" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D117">
         <v>4370.5</v>
@@ -4187,18 +3949,18 @@
         <v>2.93</v>
       </c>
       <c r="I117" t="s">
+        <v>16</v>
+      </c>
+      <c r="J117" t="s">
         <v>17</v>
       </c>
-      <c r="J117" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1">
         <v>45767</v>
       </c>
       <c r="B118" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C118" t="s">
         <v>11</v>
@@ -4219,21 +3981,21 @@
         <v>1.88</v>
       </c>
       <c r="I118" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J118" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1">
         <v>45767</v>
       </c>
       <c r="B119" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C119" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D119">
         <v>3465.5</v>
@@ -4253,16 +4015,13 @@
       <c r="I119" t="s">
         <v>13</v>
       </c>
-      <c r="J119" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1">
         <v>45767</v>
       </c>
       <c r="B120" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C120" t="s">
         <v>11</v>
@@ -4283,21 +4042,21 @@
         <v>1.49</v>
       </c>
       <c r="I120" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J120" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1">
         <v>45767</v>
       </c>
       <c r="B121" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C121" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D121">
         <v>2490</v>
@@ -4317,11 +4076,8 @@
       <c r="I121" t="s">
         <v>13</v>
       </c>
-      <c r="J121" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1">
         <v>45768</v>
       </c>
@@ -4347,13 +4103,13 @@
         <v>1.67</v>
       </c>
       <c r="I122" t="s">
+        <v>19</v>
+      </c>
+      <c r="J122" t="s">
         <v>20</v>
       </c>
-      <c r="J122" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1">
         <v>45768</v>
       </c>
@@ -4361,7 +4117,7 @@
         <v>10</v>
       </c>
       <c r="C123" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D123">
         <v>1659.5</v>
@@ -4381,16 +4137,13 @@
       <c r="I123" t="s">
         <v>13</v>
       </c>
-      <c r="J123" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1">
         <v>45768</v>
       </c>
       <c r="B124" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C124" t="s">
         <v>11</v>
@@ -4413,19 +4166,16 @@
       <c r="I124" t="s">
         <v>13</v>
       </c>
-      <c r="J124" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1">
         <v>45768</v>
       </c>
       <c r="B125" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C125" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D125">
         <v>630</v>
@@ -4445,16 +4195,13 @@
       <c r="I125" t="s">
         <v>13</v>
       </c>
-      <c r="J125" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1">
         <v>45768</v>
       </c>
       <c r="B126" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C126" t="s">
         <v>11</v>
@@ -4463,7 +4210,7 @@
         <v>109</v>
       </c>
       <c r="E126" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F126">
         <v>0.44</v>
@@ -4477,25 +4224,22 @@
       <c r="I126" t="s">
         <v>13</v>
       </c>
-      <c r="J126" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1">
         <v>45768</v>
       </c>
       <c r="B127" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C127" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D127">
         <v>0</v>
       </c>
       <c r="E127" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F127">
         <v>0.09</v>
@@ -4509,11 +4253,8 @@
       <c r="I127" t="s">
         <v>13</v>
       </c>
-      <c r="J127" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1">
         <v>45769</v>
       </c>
@@ -4539,13 +4280,13 @@
         <v>2.6</v>
       </c>
       <c r="I128" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J128" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1">
         <v>45769</v>
       </c>
@@ -4553,7 +4294,7 @@
         <v>10</v>
       </c>
       <c r="C129" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D129">
         <v>4213</v>
@@ -4573,16 +4314,13 @@
       <c r="I129" t="s">
         <v>13</v>
       </c>
-      <c r="J129" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1">
         <v>45769</v>
       </c>
       <c r="B130" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C130" t="s">
         <v>11</v>
@@ -4605,19 +4343,16 @@
       <c r="I130" t="s">
         <v>13</v>
       </c>
-      <c r="J130" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1">
         <v>45769</v>
       </c>
       <c r="B131" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C131" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D131">
         <v>3360</v>
@@ -4635,18 +4370,18 @@
         <v>1.69</v>
       </c>
       <c r="I131" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J131" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1">
         <v>45769</v>
       </c>
       <c r="B132" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C132" t="s">
         <v>11</v>
@@ -4667,21 +4402,21 @@
         <v>0.74</v>
       </c>
       <c r="I132" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J132" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1">
         <v>45769</v>
       </c>
       <c r="B133" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C133" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D133">
         <v>2373.5</v>
@@ -4701,11 +4436,8 @@
       <c r="I133" t="s">
         <v>13</v>
       </c>
-      <c r="J133" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1">
         <v>45770</v>
       </c>
@@ -4733,11 +4465,8 @@
       <c r="I134" t="s">
         <v>13</v>
       </c>
-      <c r="J134" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1">
         <v>45770</v>
       </c>
@@ -4745,7 +4474,7 @@
         <v>10</v>
       </c>
       <c r="C135" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D135">
         <v>1358.5</v>
@@ -4765,16 +4494,13 @@
       <c r="I135" t="s">
         <v>13</v>
       </c>
-      <c r="J135" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1">
         <v>45770</v>
       </c>
       <c r="B136" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C136" t="s">
         <v>11</v>
@@ -4797,25 +4523,22 @@
       <c r="I136" t="s">
         <v>13</v>
       </c>
-      <c r="J136" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1">
         <v>45770</v>
       </c>
       <c r="B137" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C137" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D137">
         <v>239</v>
       </c>
       <c r="E137" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F137">
         <v>0.05</v>
@@ -4829,16 +4552,13 @@
       <c r="I137" t="s">
         <v>13</v>
       </c>
-      <c r="J137" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1">
         <v>45770</v>
       </c>
       <c r="B138" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C138" t="s">
         <v>11</v>
@@ -4847,7 +4567,7 @@
         <v>0</v>
       </c>
       <c r="E138" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F138">
         <v>0.11</v>
@@ -4861,25 +4581,22 @@
       <c r="I138" t="s">
         <v>13</v>
       </c>
-      <c r="J138" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1">
         <v>45770</v>
       </c>
       <c r="B139" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C139" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D139">
         <v>0</v>
       </c>
       <c r="E139" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F139">
         <v>0.11</v>
@@ -4893,11 +4610,8 @@
       <c r="I139" t="s">
         <v>13</v>
       </c>
-      <c r="J139" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1">
         <v>45771</v>
       </c>
@@ -4925,11 +4639,8 @@
       <c r="I140" t="s">
         <v>13</v>
       </c>
-      <c r="J140" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1">
         <v>45771</v>
       </c>
@@ -4937,7 +4648,7 @@
         <v>10</v>
       </c>
       <c r="C141" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D141">
         <v>4024.5</v>
@@ -4955,18 +4666,18 @@
         <v>1.97</v>
       </c>
       <c r="I141" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J141" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1">
         <v>45771</v>
       </c>
       <c r="B142" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C142" t="s">
         <v>11</v>
@@ -4987,21 +4698,21 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="I142" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J142" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1">
         <v>45771</v>
       </c>
       <c r="B143" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C143" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D143">
         <v>3037.5</v>
@@ -5021,16 +4732,13 @@
       <c r="I143" t="s">
         <v>13</v>
       </c>
-      <c r="J143" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1">
         <v>45771</v>
       </c>
       <c r="B144" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C144" t="s">
         <v>11</v>
@@ -5053,19 +4761,16 @@
       <c r="I144" t="s">
         <v>13</v>
       </c>
-      <c r="J144" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1">
         <v>45771</v>
       </c>
       <c r="B145" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C145" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D145">
         <v>2168.5</v>
@@ -5085,11 +4790,8 @@
       <c r="I145" t="s">
         <v>13</v>
       </c>
-      <c r="J145" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1">
         <v>45772</v>
       </c>
@@ -5115,13 +4817,13 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="I146" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J146" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1">
         <v>45772</v>
       </c>
@@ -5129,7 +4831,7 @@
         <v>10</v>
       </c>
       <c r="C147" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D147">
         <v>1232</v>
@@ -5147,18 +4849,18 @@
         <v>1.84</v>
       </c>
       <c r="I147" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J147" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1">
         <v>45772</v>
       </c>
       <c r="B148" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C148" t="s">
         <v>11</v>
@@ -5179,27 +4881,27 @@
         <v>1.93</v>
       </c>
       <c r="I148" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J148" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1">
         <v>45772</v>
       </c>
       <c r="B149" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C149" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D149">
         <v>259.5</v>
       </c>
       <c r="E149" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F149">
         <v>0.01</v>
@@ -5213,16 +4915,13 @@
       <c r="I149" t="s">
         <v>13</v>
       </c>
-      <c r="J149" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1">
         <v>45772</v>
       </c>
       <c r="B150" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C150" t="s">
         <v>11</v>
@@ -5231,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="E150" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F150">
         <v>1.83</v>
@@ -5243,27 +4942,27 @@
         <v>2.78</v>
       </c>
       <c r="I150" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J150" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1">
         <v>45772</v>
       </c>
       <c r="B151" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C151" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D151">
         <v>0</v>
       </c>
       <c r="E151" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F151">
         <v>0.28000000000000003</v>
@@ -5277,11 +4976,8 @@
       <c r="I151" t="s">
         <v>13</v>
       </c>
-      <c r="J151" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1">
         <v>45773</v>
       </c>
@@ -5309,11 +5005,8 @@
       <c r="I152" t="s">
         <v>13</v>
       </c>
-      <c r="J152" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1">
         <v>45773</v>
       </c>
@@ -5321,7 +5014,7 @@
         <v>10</v>
       </c>
       <c r="C153" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D153">
         <v>4234.5</v>
@@ -5339,18 +5032,18 @@
         <v>1.81</v>
       </c>
       <c r="I153" t="s">
+        <v>19</v>
+      </c>
+      <c r="J153" t="s">
         <v>20</v>
       </c>
-      <c r="J153" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1">
         <v>45773</v>
       </c>
       <c r="B154" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C154" t="s">
         <v>11</v>
@@ -5373,19 +5066,16 @@
       <c r="I154" t="s">
         <v>13</v>
       </c>
-      <c r="J154" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1">
         <v>45773</v>
       </c>
       <c r="B155" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C155" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D155">
         <v>3329.5</v>
@@ -5403,18 +5093,18 @@
         <v>1.65</v>
       </c>
       <c r="I155" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J155" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1">
         <v>45773</v>
       </c>
       <c r="B156" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C156" t="s">
         <v>11</v>
@@ -5437,19 +5127,16 @@
       <c r="I156" t="s">
         <v>13</v>
       </c>
-      <c r="J156" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1">
         <v>45773</v>
       </c>
       <c r="B157" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C157" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D157">
         <v>2544.5</v>
@@ -5467,13 +5154,13 @@
         <v>2.79</v>
       </c>
       <c r="I157" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J157" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1">
         <v>45774</v>
       </c>
@@ -5499,13 +5186,13 @@
         <v>1.38</v>
       </c>
       <c r="I158" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J158" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1">
         <v>45774</v>
       </c>
@@ -5513,7 +5200,7 @@
         <v>10</v>
       </c>
       <c r="C159" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D159">
         <v>1650</v>
@@ -5533,16 +5220,13 @@
       <c r="I159" t="s">
         <v>13</v>
       </c>
-      <c r="J159" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1">
         <v>45774</v>
       </c>
       <c r="B160" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C160" t="s">
         <v>11</v>
@@ -5563,21 +5247,21 @@
         <v>1.34</v>
       </c>
       <c r="I160" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J160" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1">
         <v>45774</v>
       </c>
       <c r="B161" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C161" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D161">
         <v>761.5</v>
@@ -5595,18 +5279,18 @@
         <v>2</v>
       </c>
       <c r="I161" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J161" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1">
         <v>45774</v>
       </c>
       <c r="B162" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C162" t="s">
         <v>11</v>
@@ -5615,7 +5299,7 @@
         <v>210.5</v>
       </c>
       <c r="E162" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F162">
         <v>0.03</v>
@@ -5629,25 +5313,22 @@
       <c r="I162" t="s">
         <v>13</v>
       </c>
-      <c r="J162" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1">
         <v>45774</v>
       </c>
       <c r="B163" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C163" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D163">
         <v>59.5</v>
       </c>
       <c r="E163" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F163">
         <v>2.5099999999999998</v>
@@ -5659,13 +5340,13 @@
         <v>3.69</v>
       </c>
       <c r="I163" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J163" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1">
         <v>45775</v>
       </c>
@@ -5693,11 +5374,8 @@
       <c r="I164" t="s">
         <v>13</v>
       </c>
-      <c r="J164" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1">
         <v>45775</v>
       </c>
@@ -5705,7 +5383,7 @@
         <v>10</v>
       </c>
       <c r="C165" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D165">
         <v>4160.5</v>
@@ -5725,16 +5403,13 @@
       <c r="I165" t="s">
         <v>13</v>
       </c>
-      <c r="J165" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1">
         <v>45775</v>
       </c>
       <c r="B166" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C166" t="s">
         <v>11</v>
@@ -5755,21 +5430,21 @@
         <v>1</v>
       </c>
       <c r="I166" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J166" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1">
         <v>45775</v>
       </c>
       <c r="B167" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C167" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D167">
         <v>3144.5</v>
@@ -5789,16 +5464,13 @@
       <c r="I167" t="s">
         <v>13</v>
       </c>
-      <c r="J167" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1">
         <v>45775</v>
       </c>
       <c r="B168" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C168" t="s">
         <v>11</v>
@@ -5819,21 +5491,21 @@
         <v>2.5</v>
       </c>
       <c r="I168" t="s">
+        <v>16</v>
+      </c>
+      <c r="J168" t="s">
         <v>17</v>
       </c>
-      <c r="J168" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1">
         <v>45775</v>
       </c>
       <c r="B169" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C169" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D169">
         <v>2326</v>
@@ -5851,13 +5523,13 @@
         <v>1.93</v>
       </c>
       <c r="I169" t="s">
+        <v>19</v>
+      </c>
+      <c r="J169" t="s">
         <v>20</v>
       </c>
-      <c r="J169" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1">
         <v>45776</v>
       </c>
@@ -5885,11 +5557,8 @@
       <c r="I170" t="s">
         <v>13</v>
       </c>
-      <c r="J170" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1">
         <v>45776</v>
       </c>
@@ -5897,7 +5566,7 @@
         <v>10</v>
       </c>
       <c r="C171" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D171">
         <v>1297.5</v>
@@ -5915,18 +5584,18 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="I171" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J171" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1">
         <v>45776</v>
       </c>
       <c r="B172" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C172" t="s">
         <v>11</v>
@@ -5949,25 +5618,22 @@
       <c r="I172" t="s">
         <v>13</v>
       </c>
-      <c r="J172" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1">
         <v>45776</v>
       </c>
       <c r="B173" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C173" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D173">
         <v>336</v>
       </c>
       <c r="E173" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F173">
         <v>1.23</v>
@@ -5979,18 +5645,18 @@
         <v>1.87</v>
       </c>
       <c r="I173" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J173" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1">
         <v>45776</v>
       </c>
       <c r="B174" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C174" t="s">
         <v>11</v>
@@ -5999,7 +5665,7 @@
         <v>0</v>
       </c>
       <c r="E174" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F174">
         <v>0.13</v>
@@ -6013,25 +5679,22 @@
       <c r="I174" t="s">
         <v>13</v>
       </c>
-      <c r="J174" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1">
         <v>45776</v>
       </c>
       <c r="B175" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C175" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D175">
         <v>0</v>
       </c>
       <c r="E175" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F175">
         <v>0.1</v>
@@ -6045,11 +5708,8 @@
       <c r="I175" t="s">
         <v>13</v>
       </c>
-      <c r="J175" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1">
         <v>45777</v>
       </c>
@@ -6077,11 +5737,8 @@
       <c r="I176" t="s">
         <v>13</v>
       </c>
-      <c r="J176" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1">
         <v>45777</v>
       </c>
@@ -6089,7 +5746,7 @@
         <v>10</v>
       </c>
       <c r="C177" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D177">
         <v>4180</v>
@@ -6107,18 +5764,18 @@
         <v>1.42</v>
       </c>
       <c r="I177" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J177" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1">
         <v>45777</v>
       </c>
       <c r="B178" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C178" t="s">
         <v>11</v>
@@ -6139,21 +5796,21 @@
         <v>2.5</v>
       </c>
       <c r="I178" t="s">
+        <v>16</v>
+      </c>
+      <c r="J178" t="s">
         <v>17</v>
       </c>
-      <c r="J178" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1">
         <v>45777</v>
       </c>
       <c r="B179" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C179" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D179">
         <v>3619</v>
@@ -6171,18 +5828,18 @@
         <v>3.97</v>
       </c>
       <c r="I179" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J179" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1">
         <v>45777</v>
       </c>
       <c r="B180" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C180" t="s">
         <v>11</v>
@@ -6205,19 +5862,16 @@
       <c r="I180" t="s">
         <v>13</v>
       </c>
-      <c r="J180" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1">
         <v>45777</v>
       </c>
       <c r="B181" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C181" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D181">
         <v>2619.5</v>
@@ -6237,8 +5891,179 @@
       <c r="I181" t="s">
         <v>13</v>
       </c>
-      <c r="J181" t="s">
-        <v>14</v>
+    </row>
+    <row r="182" spans="1:10">
+      <c r="A182" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B182" t="s">
+        <v>10</v>
+      </c>
+      <c r="C182" t="s">
+        <v>11</v>
+      </c>
+      <c r="D182">
+        <v>7455.5</v>
+      </c>
+      <c r="E182" t="s">
+        <v>12</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="I182" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
+      <c r="A183" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B183" t="s">
+        <v>10</v>
+      </c>
+      <c r="C183" t="s">
+        <v>14</v>
+      </c>
+      <c r="D183">
+        <v>6881</v>
+      </c>
+      <c r="E183" t="s">
+        <v>12</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
+      <c r="A184" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B184" t="s">
+        <v>15</v>
+      </c>
+      <c r="C184" t="s">
+        <v>11</v>
+      </c>
+      <c r="D184">
+        <v>6394.5</v>
+      </c>
+      <c r="E184" t="s">
+        <v>12</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
+      <c r="A185" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B185" t="s">
+        <v>15</v>
+      </c>
+      <c r="C185" t="s">
+        <v>14</v>
+      </c>
+      <c r="D185">
+        <v>5842</v>
+      </c>
+      <c r="E185" t="s">
+        <v>12</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="I185" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
+      <c r="A186" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B186" t="s">
+        <v>18</v>
+      </c>
+      <c r="C186" t="s">
+        <v>11</v>
+      </c>
+      <c r="D186">
+        <v>5329.5</v>
+      </c>
+      <c r="E186" t="s">
+        <v>12</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
+      <c r="A187" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B187" t="s">
+        <v>18</v>
+      </c>
+      <c r="C187" t="s">
+        <v>14</v>
+      </c>
+      <c r="D187">
+        <v>4789</v>
+      </c>
+      <c r="E187" t="s">
+        <v>12</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
